--- a/2022-02-17--14-42-01/3331 calibration constants MAB edit.xlsx
+++ b/2022-02-17--14-42-01/3331 calibration constants MAB edit.xlsx
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.004732515313641064</v>
+        <v>0.004732515316678929</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.537394016222239E-05</v>
+        <v>2.537393879406581E-05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.453882720885915E-06</v>
+        <v>7.453882838698275E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1.948043593678799E-05</v>
+        <v>-1.948043599021759E-05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.004837935791880573</v>
+        <v>-0.004837935792011945</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0002921508379577191</v>
+        <v>0.0002921508379414472</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.328561074001688E-06</v>
+        <v>2.328560753711671E-06</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.0004326936883992232</v>
+        <v>-0.0004326936883017014</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1467,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.004769060350564745</v>
+        <v>-0.004769060350581409</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.004726974131483576</v>
+        <v>0.004726974132987422</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1483,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.684664878442517E-05</v>
+        <v>2.684664801164002E-05</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.834002094428888E-05</v>
+        <v>-1.834002088649068E-05</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.945887828662444E-05</v>
+        <v>-1.945887817026152E-05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1507,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.0048379418663101</v>
+        <v>-0.004837941866442324</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0002922570191067263</v>
+        <v>0.0002922570190901678</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1523,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.325131815729548E-06</v>
+        <v>2.32513158121105E-06</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.0004326929706966412</v>
+        <v>-0.000432692970598078</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.004769073038802291</v>
+        <v>-0.004769073038817629</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.004738068383336597</v>
+        <v>0.004738068388239575</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.389776443364402E-05</v>
+        <v>2.389776247075538E-05</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.33083239934122E-05</v>
+        <v>3.330832419017881E-05</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-1.950203663737553E-05</v>
+        <v>-1.950203686272737E-05</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.004837929703933047</v>
+        <v>-0.004837929704063469</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.0002920444213107181</v>
+        <v>0.0002920444212928664</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.331999484630204E-06</v>
+        <v>2.331999078326653E-06</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.0004326944082309624</v>
+        <v>-0.0004326944081344296</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.004769047624851155</v>
+        <v>-0.00476904762487008</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.02887106325761941</v>
+        <v>0.02886420279864297</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.3867424216071018</v>
+        <v>-0.3867782984779932</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.186838754739254</v>
+        <v>-0.1868759222614986</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.4006286104904103</v>
+        <v>-0.4006381397162507</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.001645114898720409</v>
+        <v>0.001681486273383009</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.05455425419397749</v>
+        <v>0.05456294757489841</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.05191544666043927</v>
+        <v>0.05187437873074729</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.1063212591760562</v>
+        <v>0.1062848069866973</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.3521606927027135</v>
+        <v>-0.3522354043604549</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.3652318738607624</v>
+        <v>-0.3652465767215977</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0001113720443019722</v>
+        <v>0.0001391095789153913</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.01118990905078463</v>
+        <v>0.01118745982966463</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.004722982834842329</v>
+        <v>0.00472298283646994</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.492043428335316E-05</v>
+        <v>2.492043308503505E-05</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8.260402334025895E-06</v>
+        <v>8.260403795009105E-06</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.857269933192372E-05</v>
+        <v>-1.857269962246036E-05</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.004827531240965514</v>
+        <v>-0.004827531240808144</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.0002981120461898475</v>
+        <v>0.0002981120459984995</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2.162573935003762E-06</v>
+        <v>2.16257404735405E-06</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.0004403372279435819</v>
+        <v>-0.0004403372281557444</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.004761162475660372</v>
+        <v>-0.004761162475400485</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.004719209095244095</v>
+        <v>0.004719209097139724</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.651176224867019E-05</v>
+        <v>2.651176085180487E-05</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-1.704421300806184E-05</v>
+        <v>-1.704421131349034E-05</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-1.855795444530849E-05</v>
+        <v>-1.855795475355514E-05</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.004827537499629412</v>
+        <v>-0.004827537499471519</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.000298211554692861</v>
+        <v>0.0002982115545021897</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2.160885733232736E-06</v>
+        <v>2.160885829069248E-06</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.0004403364989201171</v>
+        <v>-0.0004403364991324916</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.004761174062387335</v>
+        <v>-0.004761174062127868</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.004726762433826743</v>
+        <v>0.004726762435187148</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.332655764337485E-05</v>
+        <v>2.332655664411376E-05</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3.360551883582176E-05</v>
+        <v>3.360552005995042E-05</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.858746695571063E-05</v>
+        <v>-1.858746722848675E-05</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.00482752497234195</v>
+        <v>-0.004827524972185116</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.0002980123794402977</v>
+        <v>0.0002980123792484648</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2.164264692415655E-06</v>
+        <v>2.164264821333242E-06</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0004403379581077938</v>
+        <v>-0.0004403379583197549</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.004761150870815427</v>
+        <v>-0.004761150870554944</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.01593417098164784</v>
+        <v>0.01590332367122894</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.4219461766633069</v>
+        <v>-0.4219819949809948</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.2112618975798703</v>
+        <v>-0.211315569972166</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.4333092106887944</v>
+        <v>-0.4333337932797955</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.0009971838604579562</v>
+        <v>0.001031943101067812</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.05172791682478868</v>
+        <v>0.05172807456121593</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.01216164841183597</v>
+        <v>0.01214372251930711</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.1074171867753987</v>
+        <v>0.1074153840330205</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.3993410320947983</v>
+        <v>-0.3993837019812814</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.4104938458932966</v>
+        <v>-0.4105058057138433</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.004281376250295885</v>
+        <v>0.004320627484222303</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.01284320149563529</v>
+        <v>0.01285294725733865</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.004718542838204202</v>
+        <v>0.004718542839539889</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2.524393288626252E-05</v>
+        <v>2.524393255573957E-05</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>6.564976832490312E-06</v>
+        <v>6.564977708345983E-06</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-1.897528656906399E-05</v>
+        <v>-1.897528639225014E-05</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.004821394622135063</v>
+        <v>-0.004821394622177636</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.0002748529725584495</v>
+        <v>0.0002748529726560999</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2.356671757640509E-06</v>
+        <v>2.356672426514693E-06</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.0004155855376914777</v>
+        <v>-0.0004155855378640354</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.004759799416978695</v>
+        <v>-0.00475979941643059</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.004713460079913122</v>
+        <v>0.004713460080707881</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2.619820376232833E-05</v>
+        <v>2.61982035522078E-05</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-1.971200722505098E-05</v>
+        <v>-1.97120066271074E-05</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-1.89547189240327E-05</v>
+        <v>-1.895471876065617E-05</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.004821398458438608</v>
+        <v>-0.004821398458481776</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.0002749586429645146</v>
+        <v>0.0002749586430623439</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2.353799071638915E-06</v>
+        <v>2.353799723514738E-06</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.0004155850642983894</v>
+        <v>-0.0004155850644709059</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-0.004759812539349434</v>
+        <v>-0.004759812538805109</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.004723635878987226</v>
+        <v>0.004723635880953712</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2.428759535133134E-05</v>
+        <v>2.428759490072119E-05</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3.289868931860112E-05</v>
+        <v>3.289869047956158E-05</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-1.89958961163809E-05</v>
+        <v>-1.899589592642414E-05</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2299,7 +2299,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.004821390777471377</v>
+        <v>-0.004821390777513361</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.0002747470725960275</v>
+        <v>0.0002747470726936445</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.359551023462255E-06</v>
+        <v>2.359551709450494E-06</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2323,7 +2323,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.000415586012245535</v>
+        <v>-0.0004155860124181401</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.004759786262541258</v>
+        <v>-0.00475978626198918</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.0302313289991038</v>
+        <v>0.03023861770545656</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.4626351587058423</v>
+        <v>-0.4626480585957417</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.2066341076768718</v>
+        <v>-0.2066630940677399</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2387,7 +2387,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.4789822315522372</v>
+        <v>-0.478988970828372</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.0006967809264997305</v>
+        <v>-0.000668005410491328</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.04695029801091049</v>
+        <v>0.0469412432578584</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.02159885859810538</v>
+        <v>-0.02160931331976745</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.08681244228140594</v>
+        <v>0.08681160895610007</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.4351822618385711</v>
+        <v>-0.4352462188192593</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2435,7 +2435,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.4435845935276202</v>
+        <v>-0.4435838388496028</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2443,7 +2443,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.005550999815521583</v>
+        <v>-0.005517910277072477</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.0006596723236980639</v>
+        <v>-0.0006632909116781186</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-3.54541205153049E-12</v>
+        <v>-3.54541204701115E-12</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>4.230789669822183E-08</v>
+        <v>4.230789664568372E-08</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2499,7 +2499,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.0002012543716453013</v>
+        <v>-0.000201254371401659</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.47692464761475</v>
+        <v>0.4769246470513948</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2515,7 +2515,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-564.1258564675529</v>
+        <v>-564.1258558180773</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2523,7 +2523,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>299526.4786401644</v>
+        <v>299526.4783414918</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-1.069974434650475E-12</v>
+        <v>-1.069974434735549E-12</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1.239016543975395E-08</v>
+        <v>1.239016544076181E-08</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2547,7 +2547,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-5.721366744274497E-05</v>
+        <v>-5.721366744750585E-05</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1316519729136501</v>
+        <v>0.1316519729248686</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2563,7 +2563,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-150.7646156394929</v>
+        <v>-150.7646156526763</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2571,7 +2571,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>101260.5592950043</v>
+        <v>101260.5593011824</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2579,7 +2579,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-4.64718100989496E-12</v>
+        <v>-4.647181011368258E-12</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2587,7 +2587,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>5.35741409074208E-08</v>
+        <v>5.357414092463482E-08</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.0002459315113068932</v>
+        <v>-0.0002459315113871543</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2603,7 +2603,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.5619632804614643</v>
+        <v>0.5619632806480913</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-640.2025809843675</v>
+        <v>-640.2025812007653</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>324352.4101370128</v>
+        <v>324352.4102371134</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>3.914401533517933E-13</v>
+        <v>3.914401532712532E-13</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-3.529178644807706E-09</v>
+        <v>-3.529178643861067E-09</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2643,7 +2643,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.119195457438549E-05</v>
+        <v>1.119195456994671E-05</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.01294768902133173</v>
+        <v>-0.01294768901095321</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-1.086343346830673</v>
+        <v>-1.086343358930024</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>41107.86666550286</v>
+        <v>41107.86667112925</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-1.21139867995707</v>
+        <v>-1.211398679896556</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>34836.02070885724</v>
+        <v>34836.02070873951</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2691,7 +2691,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.1492209507249924</v>
+        <v>0.1492209507393861</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2699,7 +2699,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>32334.5965918935</v>
+        <v>32334.59659186626</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.9249968156279026</v>
+        <v>-0.9249968156606853</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>34674.77716496338</v>
+        <v>34674.77716503195</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.07198701220409787</v>
+        <v>-0.07198701220375553</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>32884.01184978659</v>
+        <v>32884.01184978642</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>32874.64585574501</v>
+        <v>32874.46467942435</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2779,7 +2779,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>32760.29779722464</v>
+        <v>32760.45570528667</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2787,7 +2787,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>32542.49297857262</v>
+        <v>32542.72550756059</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2795,7 +2795,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.001212433984407652</v>
+        <v>0.00121239534520938</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2803,7 +2803,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>-2.619395695230412E-06</v>
+        <v>-2.719126070711754E-06</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-7.167042806335087E-06</v>
+        <v>-7.164353859231569E-06</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2819,7 +2819,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-2.279540978711626E-06</v>
+        <v>-2.257894566204322E-06</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2827,7 +2827,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.001211183924216089</v>
+        <v>-0.001211122785339537</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2835,7 +2835,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>6.159296509596932E-05</v>
+        <v>6.160742572400291E-05</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2843,7 +2843,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-8.006196226470569E-06</v>
+        <v>-7.954213511996491E-06</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2851,7 +2851,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-6.28083565452756E-05</v>
+        <v>-6.283191715725513E-05</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2859,7 +2859,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.001187669634649592</v>
+        <v>-0.00118765388489864</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2883,7 +2883,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>32875.11930259913</v>
+        <v>32874.8795124873</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>32754.1763219526</v>
+        <v>32754.31437193152</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>32548.51566406966</v>
+        <v>32548.76754829704</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2907,7 +2907,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.001210296498870058</v>
+        <v>0.001210244527605172</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2915,7 +2915,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-2.746075419490764E-06</v>
+        <v>-2.853314018570804E-06</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2923,7 +2923,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-7.473292804200455E-06</v>
+        <v>-7.476220528447262E-06</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2931,7 +2931,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-2.319331764822793E-06</v>
+        <v>-2.308143465461372E-06</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.001209014801580668</v>
+        <v>-0.001208962382383068</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2947,7 +2947,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>6.25282134612901E-05</v>
+        <v>6.253476846664743E-05</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2955,7 +2955,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-8.360459749952013E-06</v>
+        <v>-8.319232474393029E-06</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2963,7 +2963,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-6.379590642679469E-05</v>
+        <v>-6.382640399691148E-05</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-0.001184538827516477</v>
+        <v>-0.00118450460421993</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2995,7 +2995,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>32875.27771146635</v>
+        <v>32875.12469068848</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3003,7 +3003,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>32747.38514090646</v>
+        <v>32747.53514298369</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3011,7 +3011,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>32556.43038707592</v>
+        <v>32556.65251325649</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3019,7 +3019,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.001208175738830032</v>
+        <v>0.001208156482088125</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3027,7 +3027,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-2.719922894022847E-06</v>
+        <v>-2.789326331944156E-06</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3035,7 +3035,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-5.347780074051655E-06</v>
+        <v>-5.304958648618684E-06</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3043,7 +3043,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-2.38958064086306E-06</v>
+        <v>-2.360107006265245E-06</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3051,7 +3051,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.00120704842592508</v>
+        <v>-0.001207025849170819</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3059,7 +3059,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>5.84481496636685E-05</v>
+        <v>5.844454230128329E-05</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3067,7 +3067,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-6.192626633456974E-06</v>
+        <v>-6.159918789885775E-06</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3075,7 +3075,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-5.969421833799721E-05</v>
+        <v>-5.972810311821059E-05</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3083,7 +3083,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.001181833481478447</v>
+        <v>-0.001181737833359876</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3107,7 +3107,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>-0.03073712768644307</v>
+        <v>-0.03073712768735445</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5.14304310088016E-05</v>
+        <v>5.143043063479878E-05</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.0001772615575761496</v>
+        <v>0.0001772615575530018</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-0.0001341594421159973</v>
+        <v>-0.0001341594393635166</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>-0.0305146958918123</v>
+        <v>-0.03051469589044109</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-0.002065045286141128</v>
+        <v>-0.002065045285509602</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.0001315106784903321</v>
+        <v>0.0001315106724920129</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-0.002095531387755025</v>
+        <v>-0.002095531390828015</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.03044130604140375</v>
+        <v>0.03044130603980571</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.01020129735193908</v>
+        <v>-0.01020101357340967</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-0.002152777137430333</v>
+        <v>-0.002152315089878122</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.003178590526009109</v>
+        <v>-0.003178079909266753</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3219,7 +3219,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.002263341016646141</v>
+        <v>0.002262835459090879</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.001329661267658387</v>
+        <v>-0.001331144491982915</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3235,7 +3235,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>-0.008753736286793049</v>
+        <v>-0.008755027066267415</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-0.0115356028410534</v>
+        <v>-0.01153712644100092</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.001253866005160535</v>
+        <v>0.001250231732655385</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3259,7 +3259,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.01457063594257571</v>
+        <v>-0.01457328604270003</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>-0.03062575245674999</v>
+        <v>-0.03062575245657496</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>4.813655687311725E-05</v>
+        <v>4.813655735355131E-05</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.0001740964920141509</v>
+        <v>0.000174096493214439</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3307,7 +3307,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>-0.0001367642251476164</v>
+        <v>-0.0001367642239221699</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-0.03054801036659716</v>
+        <v>-0.03054801036552772</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>-0.002109874500445385</v>
+        <v>-0.00210987449945836</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3331,7 +3331,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.0001219538173304159</v>
+        <v>0.0001219538144044595</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3339,7 +3339,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>-0.002157516345931548</v>
+        <v>-0.002157516348442499</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3347,7 +3347,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.03041473607352414</v>
+        <v>0.03041473607130582</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-0.009308830632462767</v>
+        <v>-0.009308828237169995</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-0.002390160686381524</v>
+        <v>-0.002389874517153068</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3387,7 +3387,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-0.001533952724129164</v>
+        <v>-0.001533931406337296</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.0007920582631145254</v>
+        <v>0.0007911412093857276</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.006296135172493047</v>
+        <v>0.006295551232340126</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>-0.01569148064718329</v>
+        <v>-0.01569213217593794</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>-0.009850592933652636</v>
+        <v>-0.009852430751522444</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.001694909079910078</v>
+        <v>0.001694114890135016</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3435,7 +3435,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.002618870333497303</v>
+        <v>0.002617434704596475</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3459,7 +3459,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>-0.0306011706482522</v>
+        <v>-0.03060117064925482</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>6.804133530322213E-05</v>
+        <v>6.804133505129035E-05</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.0001759803589670103</v>
+        <v>0.0001759803583861206</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3483,7 +3483,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>-0.0001232933226208169</v>
+        <v>-0.0001232933235764624</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>-0.03057407995033038</v>
+        <v>-0.03057407995056058</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>-0.001958679666338592</v>
+        <v>-0.001958679666946542</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3507,7 +3507,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.0001316668683404263</v>
+        <v>0.0001316668648398798</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-0.001994528550181957</v>
+        <v>-0.001994528551055029</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.0304300193124421</v>
+        <v>0.0304300193103756</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>-0.002713745344875537</v>
+        <v>-0.002713289239496334</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3555,7 +3555,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.007838617909173791</v>
+        <v>0.007838962004207858</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3563,7 +3563,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>-0.0007176501624335309</v>
+        <v>-0.0007170964227727251</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3571,7 +3571,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>-0.0007342341636385652</v>
+        <v>-0.0007340040366678473</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3579,7 +3579,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-0.008140807522249145</v>
+        <v>-0.00814036978909469</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>-0.00524132593818459</v>
+        <v>-0.00524113007033216</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3595,7 +3595,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>-0.03650182261498868</v>
+        <v>-0.03650174371464364</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3603,7 +3603,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>-0.007737068648098983</v>
+        <v>-0.007736856792209251</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3611,7 +3611,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>-0.007402089805530301</v>
+        <v>-0.00740370379798586</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>-1.312653241642046E-12</v>
+        <v>-1.312653247247608E-12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1.427892049080446E-08</v>
+        <v>1.427892054858161E-08</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3651,7 +3651,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>-6.207184904853198E-05</v>
+        <v>-6.20718492862118E-05</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3659,7 +3659,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.1347646948402346</v>
+        <v>0.1347646953280145</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-146.0880273946001</v>
+        <v>-146.0880278940036</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3675,7 +3675,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>95996.65031556925</v>
+        <v>95996.65051963268</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3683,7 +3683,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>3.9736788005491E-12</v>
+        <v>3.973678798465426E-12</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3691,7 +3691,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>-4.156759281452172E-08</v>
+        <v>-4.156759279281506E-08</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3699,7 +3699,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.0001735765769588753</v>
+        <v>0.0001735765768686498</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3707,7 +3707,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>-0.361640278177887</v>
+        <v>-0.3616402779908151</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3715,7 +3715,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>375.8982823317505</v>
+        <v>375.8982821382884</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>-123170.3655413331</v>
+        <v>-123170.3654615032</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>4.885197524298348E-12</v>
+        <v>4.885197530648201E-12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>-5.024615652326371E-08</v>
+        <v>-5.024615658856032E-08</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3747,7 +3747,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.0002058816319876955</v>
+        <v>0.0002058816322556957</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3755,7 +3755,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>-0.420061874311759</v>
+        <v>-0.4200618748605101</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3763,7 +3763,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>426.7284123274729</v>
+        <v>426.7284128880294</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3771,7 +3771,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>-139878.5847103651</v>
+        <v>-139878.5849389044</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3779,7 +3779,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.004418985485768133</v>
+        <v>0.004418985466697466</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3787,7 +3787,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>32757.06396092542</v>
+        <v>32757.06396095584</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3795,7 +3795,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>-0.003069636021667209</v>
+        <v>-0.003069635978317819</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3803,7 +3803,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>32760.77123617149</v>
+        <v>32760.77123610514</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3811,7 +3811,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>-0.02823602620924807</v>
+        <v>-0.02823602615354232</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3819,7 +3819,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>32829.98541280688</v>
+        <v>32829.98541271946</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3843,7 +3843,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>32771.28098956661</v>
+        <v>32771.25171671114</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3851,7 +3851,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>32775.96858042702</v>
+        <v>32776.03435043863</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3859,7 +3859,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>32745.19288803671</v>
+        <v>32745.23716248013</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3867,7 +3867,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.004771987371937386</v>
+        <v>0.004771964514609166</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3875,7 +3875,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>1.023530923294305E-05</v>
+        <v>1.023989189829823E-05</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3883,7 +3883,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>-2.080056908019239E-05</v>
+        <v>-2.08958890885488E-05</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3891,7 +3891,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>1.275135307473502E-05</v>
+        <v>1.284022958257022E-05</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3899,7 +3899,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>-0.004766529254697283</v>
+        <v>-0.004766466240170137</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3907,7 +3907,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.0003221392575484272</v>
+        <v>0.0003222648474023161</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3915,7 +3915,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>-2.295078526989151E-05</v>
+        <v>-2.294396587528484E-05</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3923,7 +3923,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>-0.0003212414117177513</v>
+        <v>-0.0003210725453108049</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3931,7 +3931,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>-0.004752210814130695</v>
+        <v>-0.004752059954683347</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3955,7 +3955,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>32769.27756702594</v>
+        <v>32769.24175250794</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3963,7 +3963,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>32776.60810345669</v>
+        <v>32776.63122792842</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3971,7 +3971,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>32748.37024115165</v>
+        <v>32748.39972491985</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3979,7 +3979,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.004776440227112638</v>
+        <v>0.004776449570302441</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3987,7 +3987,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>9.568796321294516E-06</v>
+        <v>9.417687001094537E-06</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3995,7 +3995,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>-2.045713954458825E-05</v>
+        <v>-2.04989046106759E-05</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4003,7 +4003,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>1.210633219026697E-05</v>
+        <v>1.209353709690073E-05</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4011,7 +4011,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-0.004769313849826338</v>
+        <v>-0.004769311135345089</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4019,7 +4019,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.0003303226139635121</v>
+        <v>0.0003304627394767428</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4027,7 +4027,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-2.284723258559372E-05</v>
+        <v>-2.293508820527583E-05</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4035,7 +4035,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-0.0003293403410707206</v>
+        <v>-0.0003292827373883641</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4043,7 +4043,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-0.004758873123911852</v>
+        <v>-0.004758792899002148</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4067,7 +4067,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>32766.46937080908</v>
+        <v>32766.45011093997</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4075,7 +4075,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>32773.83437496391</v>
+        <v>32773.85710540367</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4083,7 +4083,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>32777.94301058879</v>
+        <v>32777.97744962234</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4091,7 +4091,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.004786699685878804</v>
+        <v>0.00478681024064616</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4099,7 +4099,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>9.895670945992085E-06</v>
+        <v>9.788426469133789E-06</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4107,7 +4107,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>-2.005498306858207E-05</v>
+        <v>-2.006691184545251E-05</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4115,7 +4115,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1.242094578550505E-05</v>
+        <v>1.235357952251652E-05</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4123,7 +4123,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>-0.004776265318513399</v>
+        <v>-0.004776276844722665</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4131,7 +4131,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.0003056381913107906</v>
+        <v>0.0003056810810970968</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4139,7 +4139,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-2.23529796004894E-05</v>
+        <v>-2.228795442297151E-05</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>-0.0003046344532966263</v>
+        <v>-0.0003047345556503057</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4155,7 +4155,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>-0.004771669459366457</v>
+        <v>-0.004771469564766766</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4187,325 +4187,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E10E8C65C4E72B49B1FA0A4D6C9FAEF5" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="420b32693838534c970442cba73f2a80">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="A566506B-8087-465B-910F-AFC65896D3D4" xmlns:ns3="abf84261-c6ce-4ce4-852c-ac0ae3810423" xmlns:ns4="a566506b-8087-465b-910f-afc65896d3d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8dd5a481011a5361d892495802cdc1d" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="A566506B-8087-465B-910F-AFC65896D3D4"/>
-    <xsd:import namespace="abf84261-c6ce-4ce4-852c-ac0ae3810423"/>
-    <xsd:import namespace="a566506b-8087-465b-910f-afc65896d3d4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:Documenttype" minOccurs="0"/>
-                <xsd:element ref="ns2:Customer" minOccurs="0"/>
-                <xsd:element ref="ns2:Projectname" minOccurs="0"/>
-                <xsd:element ref="ns2:DevicoCompany" minOccurs="0"/>
-                <xsd:element ref="ns2:Projecttype" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="A566506B-8087-465B-910F-AFC65896D3D4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Documenttype" ma:index="2" nillable="true" ma:displayName="Documenttype" ma:format="Dropdown" ma:internalName="Documenttype">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Administrative"/>
-          <xsd:enumeration value="Application"/>
-          <xsd:enumeration value="Contract"/>
-          <xsd:enumeration value="Documentation"/>
-          <xsd:enumeration value="Indicative document"/>
-          <xsd:enumeration value="Invoice"/>
-          <xsd:enumeration value="Templates and forms"/>
-          <xsd:enumeration value="Marketing materiell"/>
-          <xsd:enumeration value="Note"/>
-          <xsd:enumeration value="Presentation"/>
-          <xsd:enumeration value="Report"/>
-          <xsd:enumeration value="Minutes of meeting"/>
-          <xsd:enumeration value="Sales"/>
-          <xsd:enumeration value="QA-document"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Customer" ma:index="3" nillable="true" ma:displayName="Customer" ma:default="" ma:internalName="Customer">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Projectname" ma:index="4" nillable="true" ma:displayName="Projectname" ma:default="MiniGyro" ma:internalName="Projectname">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="DevicoCompany" ma:index="5" nillable="true" ma:displayName="DevicoCompany" ma:default="Devico AS" ma:format="Dropdown" ma:internalName="DevicoCompany">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Devico AS"/>
-          <xsd:enumeration value="DIO"/>
-          <xsd:enumeration value="USA"/>
-          <xsd:enumeration value="Bulgaria"/>
-          <xsd:enumeration value="Finland"/>
-          <xsd:enumeration value="Sweden"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Projecttype" ma:index="6" nillable="true" ma:displayName="Projecttype" ma:default="R&amp;D" ma:format="Dropdown" ma:internalName="Projecttype">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Administrative"/>
-          <xsd:enumeration value="DCD"/>
-          <xsd:enumeration value="R&amp;D"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="abf84261-c6ce-4ce4-852c-ac0ae3810423" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a566506b-8087-465b-910f-afc65896d3d4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="23" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="24" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="9" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Projectname xmlns="A566506B-8087-465B-910F-AFC65896D3D4">MiniGyro</Projectname>
-    <DevicoCompany xmlns="A566506B-8087-465B-910F-AFC65896D3D4">Devico AS</DevicoCompany>
-    <Projecttype xmlns="A566506B-8087-465B-910F-AFC65896D3D4">R&amp;D</Projecttype>
-    <Customer xmlns="A566506B-8087-465B-910F-AFC65896D3D4" xsi:nil="true"/>
-    <Documenttype xmlns="A566506B-8087-465B-910F-AFC65896D3D4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22FC709C-78A6-464B-ACCD-3DC1FD685B4A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83747A9-F8FC-4861-B774-EC39E7B52EF4}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1287F252-6FB0-41FC-93FF-57D76E9D6902}"/>
 </file>